--- a/source/resources/source-data/alert-intermediary-server.xlsx
+++ b/source/resources/source-data/alert-intermediary-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF2D91-42A9-4402-B8FC-DFB9F1F39708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8610135-C26E-4358-9EEC-8FE713277D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,9 +366,6 @@
     <t>doc_DiagnosticReport</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/CapabilityStatement/hl7.fhir.us.davinci-alerts-0.0.0</t>
-  </si>
-  <si>
     <t>Communication</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
     <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.0.0</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1415,13 +1415,13 @@
         <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2010,25 +2010,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="90">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>

--- a/source/resources/source-data/alert-intermediary-server.xlsx
+++ b/source/resources/source-data/alert-intermediary-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8610135-C26E-4358-9EEC-8FE713277D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC4E0A-0C11-42E9-81E4-C4846AB0C91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t>Element</t>
   </si>
@@ -378,18 +378,12 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Subscription</t>
-  </si>
-  <si>
     <t>conf_Communication</t>
   </si>
   <si>
     <t>conf_Coverage</t>
   </si>
   <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.0.0</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
   </si>
   <si>
     <t>doc</t>
-  </si>
-  <si>
-    <t>Whether as a direct push based transaction or via subscription notification, a common  `transaction`  type “Alert Bundle” is the FHIR object that is exchanged between the Da Vinci Alert Actors.</t>
   </si>
   <si>
     <t>This Section describes the expected capabilities of the Da Vinci Alert Intermediary actor which is a system that can act a a central point to receive alerts from multiple Alert Senders and distribute alerts to Alert Recipients based on previously defined policies.  There are  two CapabilityStatements for the  Alert Intermediary because functions as both a server (ability to  receive restful operations from the Alert Receiver)  and a client  (ability to initiate  restful operationsto the Alert Sender).  This CapabilityStatement describes its  expectations as server.</t>
@@ -435,14 +426,45 @@
 1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.0.0</t>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-bundle</t>
+  </si>
+  <si>
+    <t>Da Vinci Alerts Bundle Profile</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t>HRex Coverage Profile</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/OperationDefinition/notify</t>
+  </si>
+  <si>
+    <t>A server **SHOULD** be capable of invoking the $notify operation to alert the Alert Recipient or Alert Intermediary of a patient event.
+`GET [base]/Communication/$notify`</t>
+  </si>
+  <si>
+    <t>conf_Bundle</t>
+  </si>
+  <si>
+    <t>A common  `transaction`  type “Alert Bundle” is the FHIR object that is exchanged between the Da Vinci Alert Actors.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +535,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,6 +615,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -905,7 +934,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -927,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -935,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -943,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -959,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -967,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +1030,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -1020,7 +1049,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1060,15 +1089,33 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="1"/>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="F5" s="1"/>
@@ -1149,7 +1196,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1267,7 +1314,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1329,10 +1376,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="E4" s="2"/>
@@ -1347,8 +1406,8 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1415,13 +1474,13 @@
         <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1483,7 +1542,7 @@
         <v>28</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1993,7 +2052,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2010,25 +2069,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="90">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -2036,7 +2095,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -2044,7 +2103,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>

--- a/source/resources/source-data/alert-intermediary-server.xlsx
+++ b/source/resources/source-data/alert-intermediary-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC4E0A-0C11-42E9-81E4-C4846AB0C91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39DDF7-30A0-4E8E-AB76-F2FE2D729DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="129">
   <si>
     <t>Element</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts-0.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/alerts-endpoint</t>
+  </si>
+  <si>
+    <t>Da Vinci Alerts Endpoint Profile</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>conf_Endpoint</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1048,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1117,8 +1129,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="1"/>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" s="1"/>
@@ -1193,10 +1216,10 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1326,8 +1349,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5"/>
+    <row r="5" spans="1:23" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="20:23" ht="18">
       <c r="T36" s="7"/>
@@ -1403,11 +1438,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1416,9 +1451,10 @@
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="21" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1482,8 +1518,11 @@
       <c r="U1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1583,11 @@
       <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1606,8 +1648,11 @@
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1668,8 +1713,11 @@
       <c r="U4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1730,8 +1778,11 @@
       <c r="U5" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1792,8 +1843,11 @@
       <c r="U6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1854,8 +1908,11 @@
       <c r="U7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1916,8 +1973,11 @@
       <c r="U8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1978,8 +2038,11 @@
       <c r="U9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2038,6 +2101,9 @@
         <v>28</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2051,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
